--- a/public/th/statistics.xlsx
+++ b/public/th/statistics.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="гыукы" sheetId="1" r:id="rId1"/>
+    <sheet name="registration" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>id</t>
   </si>
@@ -34,6 +34,24 @@
     <t>должность</t>
   </si>
   <si>
+    <t>Зачем вам визуализация?</t>
+  </si>
+  <si>
+    <t>Как продать команде необходимость..</t>
+  </si>
+  <si>
+    <t>ОС. Как сказать важное и не поссориться</t>
+  </si>
+  <si>
+    <t>Value Stream Workshop</t>
+  </si>
+  <si>
+    <t>Игра “Собирашка”</t>
+  </si>
+  <si>
+    <t>Transformation Conquest Game</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -52,6 +70,9 @@
     <t>07.11.2020 06:42:44</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -154,6 +175,9 @@
     <t>24.11.2020 07:27:32</t>
   </si>
   <si>
+    <t>ДА</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
@@ -182,6 +206,315 @@
   </si>
   <si>
     <t>24.11.2020 07:42:56</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>dfdwf</t>
+  </si>
+  <si>
+    <t>wdfdw@ewf.ee</t>
+  </si>
+  <si>
+    <t>dfdw</t>
+  </si>
+  <si>
+    <t>27.11.2020 03:26:30</t>
+  </si>
+  <si>
+    <t>wdvcdwv</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>dvc</t>
+  </si>
+  <si>
+    <t>sdv</t>
+  </si>
+  <si>
+    <t>sdv@ee.ee</t>
+  </si>
+  <si>
+    <t>dcd</t>
+  </si>
+  <si>
+    <t>27.11.2020 03:27:31</t>
+  </si>
+  <si>
+    <t>dvcdv</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>27.11.2020 03:27:35</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>27.11.2020 03:29:34</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>wdc</t>
+  </si>
+  <si>
+    <t>wcwd</t>
+  </si>
+  <si>
+    <t>wcwvc</t>
+  </si>
+  <si>
+    <t>27.11.2020 03:29:52</t>
+  </si>
+  <si>
+    <t>devcdw</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>efv</t>
+  </si>
+  <si>
+    <t>erv</t>
+  </si>
+  <si>
+    <t>efvfe@errf.rrr</t>
+  </si>
+  <si>
+    <t>erfre</t>
+  </si>
+  <si>
+    <t>27.11.2020 03:37:55</t>
+  </si>
+  <si>
+    <t>fe</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>efvfe</t>
+  </si>
+  <si>
+    <t>den.shevchenko@gmail.com</t>
+  </si>
+  <si>
+    <t>efref</t>
+  </si>
+  <si>
+    <t>27.11.2020 04:02:03</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>edfv</t>
+  </si>
+  <si>
+    <t>edf</t>
+  </si>
+  <si>
+    <t>edd@ee.ee</t>
+  </si>
+  <si>
+    <t>devd</t>
+  </si>
+  <si>
+    <t>27.11.2020 04:03:26</t>
+  </si>
+  <si>
+    <t>edv</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>wdvcdw</t>
+  </si>
+  <si>
+    <t>27.11.2020 04:05:03</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>27.11.2020 04:07:39</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>dv</t>
+  </si>
+  <si>
+    <t>dsv</t>
+  </si>
+  <si>
+    <t>27.11.2020 04:09:00</t>
+  </si>
+  <si>
+    <t>edvdf</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>dvd</t>
+  </si>
+  <si>
+    <t>27.11.2020 04:11:47</t>
+  </si>
+  <si>
+    <t>dvdwv</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>27.11.2020 04:12:23</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>dscv</t>
+  </si>
+  <si>
+    <t>sdvc</t>
+  </si>
+  <si>
+    <t>27.11.2020 04:12:52</t>
+  </si>
+  <si>
+    <t>wefwdf</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>jjbnb</t>
+  </si>
+  <si>
+    <t>hbhb</t>
+  </si>
+  <si>
+    <t>ggf@bnbh.ttt</t>
+  </si>
+  <si>
+    <t>ggg</t>
+  </si>
+  <si>
+    <t>27.11.2020 05:27:55</t>
+  </si>
+  <si>
+    <t>vvvgv</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>efvde</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>dvde@ee.ee</t>
+  </si>
+  <si>
+    <t>efvdwv</t>
+  </si>
+  <si>
+    <t>29.11.2020 01:41:01</t>
+  </si>
+  <si>
+    <t>wvwdv</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>fevfe</t>
+  </si>
+  <si>
+    <t>ddd@ee.ee</t>
+  </si>
+  <si>
+    <t>29.11.2020 01:49:58</t>
+  </si>
+  <si>
+    <t>ev</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>dfv</t>
+  </si>
+  <si>
+    <t>dd@sw.ww</t>
+  </si>
+  <si>
+    <t>29.11.2020 01:51:37</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>sdfvd</t>
+  </si>
+  <si>
+    <t>dd@ww.wwf</t>
+  </si>
+  <si>
+    <t>29.11.2020 01:54:49</t>
+  </si>
+  <si>
+    <t>sv</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>dfd@ee.ee</t>
+  </si>
+  <si>
+    <t>dfvds</t>
+  </si>
+  <si>
+    <t>29.11.2020 01:55:41</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>ewf</t>
+  </si>
+  <si>
+    <t>wefv</t>
+  </si>
+  <si>
+    <t>ee@ee.ee</t>
+  </si>
+  <si>
+    <t>devfd</t>
+  </si>
+  <si>
+    <t>01.12.2020 02:16:58</t>
+  </si>
+  <si>
+    <t>evedv</t>
   </si>
 </sst>
 </file>
@@ -234,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -247,9 +580,15 @@
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="12" width="30" customWidth="1"/>
+    <col min="13" max="13" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -271,372 +610,1524 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>58</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/th/statistics.xlsx
+++ b/public/th/statistics.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>id</t>
   </si>
@@ -175,9 +175,6 @@
     <t>24.11.2020 07:27:32</t>
   </si>
   <si>
-    <t>ДА</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -515,6 +512,24 @@
   </si>
   <si>
     <t>evedv</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>wfwd</t>
+  </si>
+  <si>
+    <t>wdf</t>
+  </si>
+  <si>
+    <t>denf@dd.ee</t>
+  </si>
+  <si>
+    <t>02.12.2020 10:46:18</t>
+  </si>
+  <si>
+    <t>Исполнительный директор по MA</t>
   </si>
 </sst>
 </file>
@@ -567,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -629,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -648,9 +663,6 @@
       <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
@@ -666,8 +678,11 @@
       <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -686,9 +701,6 @@
       <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
@@ -704,8 +716,11 @@
       <c r="L3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -724,9 +739,6 @@
       <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
@@ -742,8 +754,11 @@
       <c r="L4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -762,9 +777,6 @@
       <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
@@ -780,8 +792,11 @@
       <c r="L5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -800,9 +815,6 @@
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H6" s="2" t="s">
         <v>19</v>
       </c>
@@ -818,8 +830,11 @@
       <c r="L6" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -838,9 +853,6 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>19</v>
       </c>
@@ -856,8 +868,11 @@
       <c r="L7" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -876,9 +891,6 @@
       <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
@@ -894,8 +906,11 @@
       <c r="L8" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -914,9 +929,6 @@
       <c r="F9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H9" s="2" t="s">
         <v>19</v>
       </c>
@@ -932,8 +944,11 @@
       <c r="L9" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -953,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>19</v>
@@ -970,8 +985,11 @@
       <c r="L10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -991,7 +1009,7 @@
         <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>19</v>
@@ -1008,8 +1026,11 @@
       <c r="L11" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1029,7 +1050,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>19</v>
@@ -1046,8 +1067,11 @@
       <c r="L12" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -1067,7 +1091,7 @@
         <v>45</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>19</v>
@@ -1084,8 +1108,11 @@
       <c r="L13" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1105,7 +1132,7 @@
         <v>47</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>19</v>
@@ -1122,8 +1149,11 @@
       <c r="L14" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -1143,7 +1173,7 @@
         <v>49</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>19</v>
@@ -1160,8 +1190,11 @@
       <c r="L15" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -1181,7 +1214,7 @@
         <v>51</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>19</v>
@@ -1198,100 +1231,103 @@
       <c r="L16" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>19</v>
@@ -1305,55 +1341,58 @@
       <c r="L20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1369,29 +1408,32 @@
       <c r="L22" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H23" s="2" t="s">
         <v>19</v>
       </c>
@@ -1407,637 +1449,688 @@
       <c r="L23" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="G25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="H39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H40" s="2" t="s">
         <v>19</v>
       </c>
@@ -2053,67 +2146,73 @@
       <c r="L40" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H42" s="2" t="s">
         <v>19</v>
       </c>
@@ -2127,6 +2226,50 @@
         <v>19</v>
       </c>
       <c r="L42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>19</v>
       </c>
     </row>
